--- a/scimagojr/scimagojr_2006.xlsx
+++ b/scimagojr/scimagojr_2006.xlsx
@@ -275,42 +275,42 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
     <t>Peru</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
+    <t>Armenia</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Oman</t>
   </si>
   <si>
@@ -383,12 +383,12 @@
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
@@ -401,15 +401,15 @@
     <t>Sudan</t>
   </si>
   <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Palestine</t>
   </si>
   <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
@@ -425,12 +425,12 @@
     <t>Congo</t>
   </si>
   <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -449,30 +449,30 @@
     <t>Gambia</t>
   </si>
   <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -494,12 +494,12 @@
     <t>Myanmar</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -512,21 +512,24 @@
     <t>French Polynesia</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Grenada</t>
   </si>
   <si>
+    <t>Guam</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
@@ -536,9 +539,6 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Guam</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
@@ -551,12 +551,12 @@
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Haïti</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -572,78 +572,78 @@
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
+    <t>Democratic Republic Congo</t>
   </si>
   <si>
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Democratic Republic Congo</t>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
+    <t>Burundi</t>
   </si>
   <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
+    <t>San Marino</t>
   </si>
   <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -653,42 +653,42 @@
     <t>Dominica</t>
   </si>
   <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>North Korea</t>
+    <t>Saint Kitts and Nevis</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
     <t>Kiribati</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Maldives</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
@@ -698,46 +698,46 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Somalia</t>
-  </si>
-  <si>
     <t>Niue</t>
   </si>
   <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>Cocos (Keeling) Islands</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>Anguilla</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
     <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Nauru</t>
   </si>
 </sst>
 </file>
@@ -881,22 +881,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>536108</v>
+        <v>542539</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>475425</v>
+        <v>477108</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>21709562</v>
+        <v>24132012</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>9295608</v>
+        <v>10026677</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>40.49</v>
+        <v>44.48</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -910,22 +910,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>201361</v>
+        <v>201036</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>199528</v>
+        <v>199482</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2867645</v>
+        <v>3136600</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1521816</v>
+        <v>1649544</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.24</v>
+        <v>15.6</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -939,22 +939,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>148348</v>
+        <v>149289</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>125393</v>
+        <v>125755</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5732447</v>
+        <v>6411346</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1221574</v>
+        <v>1316562</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>38.64</v>
+        <v>42.95</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -968,22 +968,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>130213</v>
+        <v>130425</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>125714</v>
+        <v>126090</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3047578</v>
+        <v>3342774</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>717783</v>
+        <v>755465</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>23.4</v>
+        <v>25.63</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -997,22 +997,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>129278</v>
+        <v>129765</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>118732</v>
+        <v>119444</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4309175</v>
+        <v>4747070</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>969527</v>
+        <v>1024959</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>33.33</v>
+        <v>36.58</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1026,22 +1026,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>90245</v>
+        <v>90279</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>84204</v>
+        <v>84402</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2957904</v>
+        <v>3258860</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>575946</v>
+        <v>606471</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>32.78</v>
+        <v>36.1</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1055,22 +1055,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>76563</v>
+        <v>77158</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>68892</v>
+        <v>69088</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3004863</v>
+        <v>3346243</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>484801</v>
+        <v>517049</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>39.25</v>
+        <v>43.37</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1084,22 +1084,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>70100</v>
+        <v>70153</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>64270</v>
+        <v>64447</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2252459</v>
+        <v>2478110</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>467183</v>
+        <v>497229</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>32.13</v>
+        <v>35.32</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1113,22 +1113,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>54747</v>
+        <v>54675</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>50660</v>
+        <v>50724</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1709364</v>
+        <v>1881841</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>351027</v>
+        <v>370128</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>31.22</v>
+        <v>34.42</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1142,22 +1142,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>51504</v>
+        <v>51999</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>45913</v>
+        <v>46186</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1948254</v>
+        <v>2180291</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>369324</v>
+        <v>395550</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>37.83</v>
+        <v>41.93</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1171,22 +1171,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>47797</v>
+        <v>47743</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>44901</v>
+        <v>45013</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1044105</v>
+        <v>1167060</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>342529</v>
+        <v>384204</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>21.84</v>
+        <v>24.44</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1200,22 +1200,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>44359</v>
+        <v>44296</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>988557</v>
+        <v>1083934</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>171629</v>
+        <v>178904</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.29</v>
+        <v>24.47</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1229,22 +1229,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>39825</v>
+        <v>39950</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>35913</v>
+        <v>36004</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1850849</v>
+        <v>2056772</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>249940</v>
+        <v>262801</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>46.47</v>
+        <v>51.48</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1258,22 +1258,22 @@
         <v>27</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>36010</v>
+        <v>36025</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>35274</v>
+        <v>35358</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>497593</v>
+        <v>547266</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>144591</v>
+        <v>155872</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>13.82</v>
+        <v>15.19</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1287,22 +1287,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>34629</v>
+        <v>34668</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>33064</v>
+        <v>33151</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>764148</v>
+        <v>845011</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>257127</v>
+        <v>276331</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>22.07</v>
+        <v>24.37</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1316,22 +1316,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>29851</v>
+        <v>29853</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>28982</v>
+        <v>29057</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>681115</v>
+        <v>749446</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>117942</v>
+        <v>121926</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>22.82</v>
+        <v>25.1</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1345,22 +1345,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>28887</v>
+        <v>28910</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>26403</v>
+        <v>26477</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1392440</v>
+        <v>1534650</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>153202</v>
+        <v>160259</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>48.2</v>
+        <v>53.08</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1374,22 +1374,22 @@
         <v>27</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>27390</v>
+        <v>27422</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>26527</v>
+        <v>26594</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>475397</v>
+        <v>518241</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>101830</v>
+        <v>107199</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>17.36</v>
+        <v>18.9</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1403,22 +1403,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>26240</v>
+        <v>26251</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24364</v>
+        <v>24424</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1130522</v>
+        <v>1247108</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>144147</v>
+        <v>151220</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>43.08</v>
+        <v>47.51</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1432,22 +1432,22 @@
         <v>35</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>23504</v>
+        <v>23419</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>22155</v>
+        <v>22177</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>492927</v>
+        <v>548997</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>99740</v>
+        <v>108094</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>20.97</v>
+        <v>23.44</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1461,22 +1461,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>21591</v>
+        <v>21632</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>19694</v>
+        <v>19726</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>868998</v>
+        <v>965106</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>97524</v>
+        <v>101642</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>40.25</v>
+        <v>44.61</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1490,22 +1490,22 @@
         <v>35</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>16420</v>
+        <v>16516</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>15173</v>
+        <v>15215</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>634019</v>
+        <v>705493</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>72454</v>
+        <v>76860</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>38.61</v>
+        <v>42.72</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1519,22 +1519,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>15307</v>
+        <v>15343</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>13950</v>
+        <v>14017</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>552050</v>
+        <v>607351</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>60203</v>
+        <v>62963</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>36.07</v>
+        <v>39.58</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1548,22 +1548,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>14994</v>
+        <v>15024</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>13844</v>
+        <v>13884</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>428085</v>
+        <v>471557</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>53064</v>
+        <v>56247</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>28.55</v>
+        <v>31.39</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1577,22 +1577,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>14415</v>
+        <v>14378</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>13131</v>
+        <v>13155</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>699575</v>
+        <v>777669</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>80951</v>
+        <v>85287</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>48.53</v>
+        <v>54.09</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1606,22 +1606,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>14040</v>
+        <v>14071</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>13151</v>
+        <v>13188</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>515126</v>
+        <v>568613</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>64531</v>
+        <v>67822</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>36.69</v>
+        <v>40.41</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1635,22 +1635,22 @@
         <v>12</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>14036</v>
+        <v>14052</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>12932</v>
+        <v>12955</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>456489</v>
+        <v>507712</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>49797</v>
+        <v>51741</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>32.52</v>
+        <v>36.13</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1664,22 +1664,22 @@
         <v>29</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>12897</v>
+        <v>12955</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>12394</v>
+        <v>12468</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>279535</v>
+        <v>308609</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>50153</v>
+        <v>53993</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>21.67</v>
+        <v>23.82</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1693,22 +1693,22 @@
         <v>27</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>12100</v>
+        <v>12085</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>11723</v>
+        <v>11734</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>259852</v>
+        <v>283947</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>49943</v>
+        <v>52077</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>21.48</v>
+        <v>23.5</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1722,22 +1722,22 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>12015</v>
+        <v>12042</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>11213</v>
+        <v>11228</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>401202</v>
+        <v>446682</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>35507</v>
+        <v>36758</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>33.39</v>
+        <v>37.09</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1751,22 +1751,22 @@
         <v>35</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>11888</v>
+        <v>11884</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>11608</v>
+        <v>11631</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>227895</v>
+        <v>253094</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>76159</v>
+        <v>81040</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>19.17</v>
+        <v>21.3</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1780,22 +1780,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>11770</v>
+        <v>11748</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>10715</v>
+        <v>10733</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>472725</v>
+        <v>523697</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>60770</v>
+        <v>64447</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>40.16</v>
+        <v>44.58</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1809,22 +1809,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>10513</v>
+        <v>10523</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>10001</v>
+        <v>10022</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>328261</v>
+        <v>364869</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>51023</v>
+        <v>53976</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>31.22</v>
+        <v>34.67</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1838,22 +1838,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>9706</v>
+        <v>9742</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>8599</v>
+        <v>8617</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>413284</v>
+        <v>492103</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>46351</v>
+        <v>50399</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>42.58</v>
+        <v>50.51</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1867,22 +1867,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>9118</v>
+        <v>9173</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>8354</v>
+        <v>8422</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>248787</v>
+        <v>278261</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>50071</v>
+        <v>54395</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>27.29</v>
+        <v>30.33</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1896,22 +1896,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>8119</v>
+        <v>8149</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>7267</v>
+        <v>7287</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>296072</v>
+        <v>325093</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>27459</v>
+        <v>28568</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>36.47</v>
+        <v>39.89</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1925,22 +1925,22 @@
         <v>27</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>8089</v>
+        <v>8117</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>7717</v>
+        <v>7743</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>213811</v>
+        <v>235126</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>25629</v>
+        <v>27138</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>26.43</v>
+        <v>28.97</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1954,22 +1954,22 @@
         <v>29</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>7938</v>
+        <v>7932</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>7596</v>
+        <v>7611</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>227836</v>
+        <v>251239</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>42482</v>
+        <v>45667</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>28.7</v>
+        <v>31.67</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1983,22 +1983,22 @@
         <v>27</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>6924</v>
+        <v>6951</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>6829</v>
+        <v>6852</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>77536</v>
+        <v>85757</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>18544</v>
+        <v>19993</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>11.2</v>
+        <v>12.34</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2012,22 +2012,22 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>6271</v>
+        <v>6260</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>6023</v>
+        <v>6033</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>158811</v>
+        <v>177651</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>21622</v>
+        <v>23211</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>25.32</v>
+        <v>28.38</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2041,22 +2041,22 @@
         <v>58</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>5334</v>
+        <v>5336</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>5208</v>
+        <v>5222</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>113449</v>
+        <v>127490</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>19219</v>
+        <v>21306</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>21.27</v>
+        <v>23.89</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2070,22 +2070,22 @@
         <v>27</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>5272</v>
+        <v>5289</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>5177</v>
+        <v>5197</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>74531</v>
+        <v>81860</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>14023</v>
+        <v>14748</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>14.14</v>
+        <v>15.48</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2099,22 +2099,22 @@
         <v>29</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>5035</v>
+        <v>5039</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>4808</v>
+        <v>4813</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>141029</v>
+        <v>154924</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>25101</v>
+        <v>26958</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>28.01</v>
+        <v>30.74</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2128,22 +2128,22 @@
         <v>12</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>4594</v>
+        <v>4596</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>4396</v>
+        <v>4404</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>84834</v>
+        <v>96031</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>18295</v>
+        <v>19793</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>18.47</v>
+        <v>20.89</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2157,22 +2157,22 @@
         <v>27</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>3995</v>
+        <v>4002</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>3836</v>
+        <v>3857</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>59906</v>
+        <v>65785</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>10491</v>
+        <v>11215</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>15</v>
+        <v>16.44</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2186,22 +2186,22 @@
         <v>27</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3819</v>
+        <v>3813</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>3713</v>
+        <v>3719</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>85492</v>
+        <v>92035</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>11357</v>
+        <v>11772</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>22.39</v>
+        <v>24.14</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2215,22 +2215,22 @@
         <v>12</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>3421</v>
+        <v>3426</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>59683</v>
+        <v>67422</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>14336</v>
+        <v>15650</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>16.51</v>
+        <v>18.67</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2244,22 +2244,22 @@
         <v>27</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>3543</v>
+        <v>3547</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>3392</v>
+        <v>3398</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>99793</v>
+        <v>112111</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>12638</v>
+        <v>13241</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>28.17</v>
+        <v>31.61</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2273,22 +2273,22 @@
         <v>51</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>3215</v>
+        <v>3234</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>3121</v>
+        <v>3136</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>47544</v>
+        <v>54694</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>10895</v>
+        <v>12321</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>14.79</v>
+        <v>16.91</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2302,22 +2302,22 @@
         <v>27</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>2942</v>
+        <v>2949</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>2854</v>
+        <v>2861</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>61169</v>
+        <v>68000</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>7160</v>
+        <v>7576</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>20.79</v>
+        <v>23.06</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2331,22 +2331,22 @@
         <v>35</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>47209</v>
+        <v>53315</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>6552</v>
+        <v>7335</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>17.15</v>
+        <v>19.38</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2360,22 +2360,22 @@
         <v>51</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>2593</v>
+        <v>2598</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>42333</v>
+        <v>47087</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>8334</v>
+        <v>8951</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>15.8</v>
+        <v>17.56</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2389,22 +2389,22 @@
         <v>29</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>56097</v>
+        <v>61971</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>8758</v>
+        <v>9445</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>24.64</v>
+        <v>27.24</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2418,22 +2418,22 @@
         <v>27</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>36289</v>
+        <v>40017</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>6376</v>
+        <v>6694</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>16.3</v>
+        <v>17.87</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2447,22 +2447,22 @@
         <v>27</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>2186</v>
+        <v>2203</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2140</v>
+        <v>2147</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>39719</v>
+        <v>43868</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>6604</v>
+        <v>6989</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>18.17</v>
+        <v>19.91</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2476,22 +2476,22 @@
         <v>29</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>34886</v>
+        <v>38996</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3114</v>
+        <v>3255</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>16.96</v>
+        <v>18.95</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2505,22 +2505,22 @@
         <v>29</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1828</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>23243</v>
+        <v>25060</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3962</v>
+        <v>4124</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>12.27</v>
+        <v>13.23</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2534,22 +2534,22 @@
         <v>51</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>30489</v>
+        <v>34355</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>6013</v>
+        <v>6630</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>16.28</v>
+        <v>18.39</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2563,22 +2563,22 @@
         <v>27</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>21863</v>
+        <v>24169</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2826</v>
+        <v>2985</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>13.3</v>
+        <v>14.68</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2592,22 +2592,22 @@
         <v>51</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>30025</v>
+        <v>33671</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>5533</v>
+        <v>6270</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>19.02</v>
+        <v>21.34</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2621,22 +2621,22 @@
         <v>35</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1471</v>
+        <v>1479</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>29668</v>
+        <v>33780</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>2406</v>
+        <v>2612</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>20.17</v>
+        <v>22.84</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2650,22 +2650,22 @@
         <v>12</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1427</v>
+        <v>1452</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>33601</v>
+        <v>37978</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4252</v>
+        <v>5042</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>23.55</v>
+        <v>26.16</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2679,22 +2679,22 @@
         <v>35</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>28870</v>
+        <v>32935</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2655</v>
+        <v>2975</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>21.26</v>
+        <v>24.11</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2711,19 +2711,19 @@
         <v>1335</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>41821</v>
+        <v>46420</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>5894</v>
+        <v>6166</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>31.33</v>
+        <v>34.77</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2737,22 +2737,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>28732</v>
+        <v>32404</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4633</v>
+        <v>5206</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>22.89</v>
+        <v>25.78</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2766,22 +2766,22 @@
         <v>35</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1004</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>24948</v>
+        <v>27840</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2205</v>
+        <v>2369</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>22.48</v>
+        <v>25.19</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2795,22 +2795,22 @@
         <v>51</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>36170</v>
+        <v>40420</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>6162</v>
+        <v>6573</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>33.52</v>
+        <v>37.39</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2824,22 +2824,22 @@
         <v>12</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>30666</v>
+        <v>34171</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>3468</v>
+        <v>3792</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>31.04</v>
+        <v>34.62</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2850,25 +2850,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>17266</v>
+        <v>32633</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1509</v>
+        <v>1707</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>17.86</v>
+        <v>33.54</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>195</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2879,25 +2879,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>29560</v>
+        <v>19802</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1643</v>
+        <v>1591</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>30.6</v>
+        <v>20.54</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2911,22 +2911,22 @@
         <v>12</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>31966</v>
+        <v>36199</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2777</v>
+        <v>3067</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>34.41</v>
+        <v>38.63</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2940,22 +2940,22 @@
         <v>29</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>816</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>22553</v>
+        <v>24535</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2602</v>
+        <v>2857</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>25.51</v>
+        <v>27.66</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2966,25 +2966,25 @@
         <v>90</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>40166</v>
+        <v>14116</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3088</v>
+        <v>1513</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>54.13</v>
+        <v>18.95</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>370</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2998,22 +2998,22 @@
         <v>14</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>20249</v>
+        <v>46107</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1976</v>
+        <v>3342</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>28.12</v>
+        <v>62.39</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>254</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3024,25 +3024,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>12751</v>
+        <v>22565</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1413</v>
+        <v>2124</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>17.93</v>
+        <v>31.21</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>219</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3053,25 +3053,25 @@
         <v>93</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>18400</v>
+        <v>19527</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2250</v>
+        <v>1486</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>28.35</v>
+        <v>29.9</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3082,25 +3082,25 @@
         <v>94</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>17313</v>
+        <v>20477</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1349</v>
+        <v>2420</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>26.68</v>
+        <v>31.5</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3114,22 +3114,22 @@
         <v>51</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>21213</v>
+        <v>23704</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>3065</v>
+        <v>3340</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>33.67</v>
+        <v>37.57</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3143,22 +3143,22 @@
         <v>27</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>16129</v>
+        <v>18196</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1201</v>
+        <v>2191</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>26.4</v>
+        <v>29.73</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3172,22 +3172,22 @@
         <v>27</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>16470</v>
+        <v>16067</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>2053</v>
+        <v>1253</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3201,22 +3201,22 @@
         <v>35</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>550</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>11725</v>
+        <v>13733</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1102</v>
+        <v>1202</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>19.71</v>
+        <v>22.81</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3230,22 +3230,22 @@
         <v>51</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>14710</v>
+        <v>16312</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>3183</v>
+        <v>3723</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>24.76</v>
+        <v>27.6</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3259,22 +3259,22 @@
         <v>12</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>13667</v>
+        <v>15548</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1560</v>
+        <v>1733</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>23.36</v>
+        <v>26.49</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3288,22 +3288,22 @@
         <v>51</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>15944</v>
+        <v>18466</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3752</v>
+        <v>4475</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>30.96</v>
+        <v>35.72</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3320,19 +3320,19 @@
         <v>485</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>18011</v>
+        <v>19558</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2907</v>
+        <v>3122</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>37.14</v>
+        <v>40.33</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3352,16 +3352,16 @@
         <v>471</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>6538</v>
+        <v>7385</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>820</v>
+        <v>998</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>13.82</v>
+        <v>15.61</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3375,22 +3375,22 @@
         <v>29</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>16348</v>
+        <v>18412</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1386</v>
+        <v>1490</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>34.93</v>
+        <v>39.43</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3404,22 +3404,22 @@
         <v>14</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>13798</v>
+        <v>15217</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>851</v>
+        <v>895</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>30.33</v>
+        <v>33.37</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3433,22 +3433,22 @@
         <v>51</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>11819</v>
+        <v>13409</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1691</v>
+        <v>1901</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>29.11</v>
+        <v>32.87</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3462,22 +3462,22 @@
         <v>27</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>4176</v>
+        <v>4742</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>818</v>
+        <v>879</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>10.76</v>
+        <v>12.25</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3491,22 +3491,22 @@
         <v>27</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>4211</v>
+        <v>4754</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>11.47</v>
+        <v>12.88</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3520,22 +3520,22 @@
         <v>27</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>5235</v>
+        <v>6323</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>14.3</v>
+        <v>17.32</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3549,22 +3549,22 @@
         <v>35</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>4735</v>
+        <v>5012</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>13.41</v>
+        <v>14.32</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3584,16 +3584,16 @@
         <v>336</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>4112</v>
+        <v>4662</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>607</v>
+        <v>695</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>11.95</v>
+        <v>13.55</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3607,22 +3607,22 @@
         <v>51</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>10661</v>
+        <v>12055</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1059</v>
+        <v>1144</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>32.11</v>
+        <v>36.42</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3636,22 +3636,22 @@
         <v>51</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>8035</v>
+        <v>8575</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>920</v>
+        <v>1060</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>24.42</v>
+        <v>26.47</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3665,22 +3665,22 @@
         <v>29</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>295</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>11456</v>
+        <v>11871</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1732</v>
+        <v>1877</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>35.14</v>
+        <v>36.75</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3694,22 +3694,22 @@
         <v>51</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>288</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>7391</v>
+        <v>8063</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>23.77</v>
+        <v>26.09</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3723,22 +3723,22 @@
         <v>27</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>303</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>6530</v>
+        <v>7134</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>736</v>
+        <v>765</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>21.13</v>
+        <v>23.16</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3752,22 +3752,22 @@
         <v>35</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>297</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5287</v>
+        <v>5879</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>17.17</v>
+        <v>19.15</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3781,22 +3781,22 @@
         <v>12</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>6768</v>
+        <v>7484</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>23.5</v>
+        <v>25.9</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3810,22 +3810,22 @@
         <v>35</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3689</v>
+        <v>4166</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>12.9</v>
+        <v>14.52</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3839,22 +3839,22 @@
         <v>29</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>243</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>5587</v>
+        <v>6404</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>20.39</v>
+        <v>23.54</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3874,16 +3874,16 @@
         <v>244</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>7852</v>
+        <v>8784</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>31.28</v>
+        <v>35</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3900,19 +3900,19 @@
         <v>247</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>22120</v>
+        <v>9781</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1423</v>
+        <v>418</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>89.55</v>
+        <v>39.6</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3926,22 +3926,22 @@
         <v>29</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>8557</v>
+        <v>24667</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>398</v>
+        <v>1485</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>35.07</v>
+        <v>101.93</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3955,22 +3955,22 @@
         <v>35</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>235</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>6602</v>
+        <v>7710</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>27.39</v>
+        <v>31.86</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3984,22 +3984,22 @@
         <v>51</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>7642</v>
+        <v>8358</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1027</v>
+        <v>1089</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>33.52</v>
+        <v>36.5</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4013,22 +4013,22 @@
         <v>51</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>203</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>4138</v>
+        <v>4518</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>19.16</v>
+        <v>21.11</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4042,22 +4042,22 @@
         <v>51</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>202</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>4191</v>
+        <v>4697</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>19.68</v>
+        <v>22.16</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4068,25 +4068,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>4152</v>
+        <v>8620</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>340</v>
+        <v>509</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>21.4</v>
+        <v>44.66</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4097,25 +4097,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>7558</v>
+        <v>10336</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>495</v>
+        <v>394</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>39.16</v>
+        <v>53.83</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4126,25 +4126,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>189</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>9087</v>
+        <v>4479</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>48.08</v>
+        <v>23.7</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4164,16 +4164,16 @@
         <v>175</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>4267</v>
+        <v>4876</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>23.71</v>
+        <v>27.09</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4187,22 +4187,22 @@
         <v>51</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>159</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>6527</v>
+        <v>7211</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>730</v>
+        <v>787</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>38.85</v>
+        <v>42.67</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4216,22 +4216,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>3558</v>
+        <v>3901</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>21.96</v>
+        <v>24.23</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4245,22 +4245,22 @@
         <v>51</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>152</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>2844</v>
+        <v>3165</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>17.66</v>
+        <v>19.91</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4274,22 +4274,22 @@
         <v>51</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>148</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>4302</v>
+        <v>4829</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>27.4</v>
+        <v>31.15</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4306,19 +4306,19 @@
         <v>145</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>3702</v>
+        <v>5715</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>25.53</v>
+        <v>39.41</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4332,22 +4332,22 @@
         <v>51</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>5149</v>
+        <v>4040</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>628</v>
+        <v>390</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>35.51</v>
+        <v>28.06</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4367,16 +4367,16 @@
         <v>127</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>4907</v>
+        <v>5510</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>37.46</v>
+        <v>42.06</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4390,22 +4390,22 @@
         <v>12</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>123</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>3274</v>
+        <v>3663</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>25.38</v>
+        <v>28.62</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4425,16 +4425,16 @@
         <v>115</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>6250</v>
+        <v>6891</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>552</v>
+        <v>606</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>50.81</v>
+        <v>56.02</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4454,16 +4454,16 @@
         <v>106</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>3265</v>
+        <v>3592</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>26.76</v>
+        <v>29.44</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4483,16 +4483,16 @@
         <v>113</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>4233</v>
+        <v>4659</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>35.57</v>
+        <v>39.15</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4506,22 +4506,22 @@
         <v>51</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>105</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>6417</v>
+        <v>6791</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>57.29</v>
+        <v>61.74</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4532,25 +4532,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>106</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>3021</v>
+        <v>2770</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>28.5</v>
+        <v>26.13</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4561,25 +4561,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2996</v>
+        <v>3306</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>146</v>
+        <v>312</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>28.53</v>
+        <v>31.19</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>98</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4590,25 +4590,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>2488</v>
+        <v>3509</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>24.63</v>
+        <v>33.42</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4622,22 +4622,22 @@
         <v>29</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>87</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1559</v>
+        <v>1707</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>15.91</v>
+        <v>17.78</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4648,25 +4648,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>3520</v>
+        <v>3646</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>37.05</v>
+        <v>37.98</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4677,25 +4677,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>3075</v>
+        <v>2931</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>32.71</v>
+        <v>30.85</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4715,16 +4715,16 @@
         <v>90</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>3821</v>
+        <v>4226</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>40.65</v>
+        <v>44.96</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4735,25 +4735,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2558</v>
+        <v>3223</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>27.21</v>
+        <v>35.03</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4767,22 +4767,22 @@
         <v>29</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>83</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>2849</v>
+        <v>3226</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>30.63</v>
+        <v>35.07</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4796,22 +4796,22 @@
         <v>27</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>89</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2473</v>
+        <v>2729</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>27.18</v>
+        <v>29.66</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4831,16 +4831,16 @@
         <v>78</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2679</v>
+        <v>3041</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>30.79</v>
+        <v>34.95</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4854,22 +4854,22 @@
         <v>12</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1773</v>
+        <v>1969</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>21.11</v>
+        <v>23.72</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4889,16 +4889,16 @@
         <v>78</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>4515</v>
+        <v>4983</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>55.74</v>
+        <v>61.52</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4918,16 +4918,16 @@
         <v>70</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>2864</v>
+        <v>3282</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>38.19</v>
+        <v>43.76</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4941,22 +4941,22 @@
         <v>12</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>68</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1579</v>
+        <v>1658</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>21.34</v>
+        <v>22.71</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4967,25 +4967,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1602</v>
+        <v>2466</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>22.56</v>
+        <v>35.23</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4996,25 +4996,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>2233</v>
+        <v>1713</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>31.9</v>
+        <v>24.83</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5034,16 +5034,16 @@
         <v>55</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1752</v>
+        <v>1920</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>27.38</v>
+        <v>30</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5057,22 +5057,22 @@
         <v>51</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>51</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1033</v>
+        <v>1097</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>16.66</v>
+        <v>17.98</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5086,22 +5086,22 @@
         <v>29</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>56</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>3181</v>
+        <v>2888</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>53.02</v>
+        <v>49.79</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5121,16 +5121,16 @@
         <v>49</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1304</v>
+        <v>1471</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>25.57</v>
+        <v>28.84</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5141,25 +5141,25 @@
         <v>165</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1802</v>
+        <v>1309</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>35.33</v>
+        <v>26.18</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5170,25 +5170,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>949</v>
+        <v>2106</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>18.98</v>
+        <v>42.12</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5199,25 +5199,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1144</v>
+        <v>1003</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>22.88</v>
+        <v>20.47</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5237,16 +5237,16 @@
         <v>45</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1350</v>
+        <v>1529</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>28.72</v>
+        <v>32.53</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5266,16 +5266,16 @@
         <v>40</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>853</v>
+        <v>989</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>18.54</v>
+        <v>21.5</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5286,25 +5286,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>976</v>
+        <v>1333</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>21.69</v>
+        <v>29.62</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5315,25 +5315,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>417</v>
+        <v>1069</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>9.27</v>
+        <v>23.76</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5344,25 +5344,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1436</v>
+        <v>457</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>33.4</v>
+        <v>10.16</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5373,25 +5373,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1152</v>
+        <v>1615</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>26.79</v>
+        <v>37.56</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5411,16 +5411,16 @@
         <v>43</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1727</v>
+        <v>1930</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>40.16</v>
+        <v>44.88</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5440,16 +5440,16 @@
         <v>37</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>18.78</v>
+        <v>21.27</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5469,16 +5469,16 @@
         <v>40</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1132</v>
+        <v>1283</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>28.3</v>
+        <v>32.08</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5492,22 +5492,22 @@
         <v>29</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>4610</v>
+        <v>3516</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>115.25</v>
+        <v>90.15</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5518,7 +5518,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>38</v>
@@ -5527,16 +5527,16 @@
         <v>36</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1206</v>
+        <v>1792</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>31.74</v>
+        <v>47.16</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5547,7 +5547,7 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>38</v>
@@ -5556,16 +5556,16 @@
         <v>36</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1665</v>
+        <v>1310</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>43.82</v>
+        <v>34.47</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5585,16 +5585,16 @@
         <v>37</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1487</v>
+        <v>1728</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>40.19</v>
+        <v>46.7</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5614,16 +5614,16 @@
         <v>33</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>615</v>
+        <v>700</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>17.08</v>
+        <v>19.44</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5643,16 +5643,16 @@
         <v>33</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1156</v>
+        <v>1358</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>82</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>34</v>
+        <v>39.94</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5672,16 +5672,16 @@
         <v>26</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="G167" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>18.29</v>
+        <v>19.97</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5701,16 +5701,16 @@
         <v>26</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>20.57</v>
+        <v>22.39</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5721,25 +5721,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>4050</v>
+        <v>845</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>155.77</v>
+        <v>32.5</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5756,19 +5756,19 @@
         <v>26</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>669</v>
+        <v>915</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>25.73</v>
+        <v>35.19</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5779,7 +5779,7 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>26</v>
@@ -5788,16 +5788,16 @@
         <v>25</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>28.65</v>
+        <v>28.88</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5817,16 +5817,16 @@
         <v>24</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>21.6</v>
+        <v>24.6</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5843,19 +5843,19 @@
         <v>24</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>798</v>
+        <v>4570</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>33.25</v>
+        <v>190.42</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5866,25 +5866,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>768</v>
+        <v>952</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>33.39</v>
+        <v>45.33</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5895,25 +5895,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>37.61</v>
+        <v>40.67</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5924,25 +5924,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>265</v>
+        <v>700</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>13.25</v>
+        <v>35</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5962,16 +5962,16 @@
         <v>18</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>12.4</v>
+        <v>13.6</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5982,25 +5982,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>609</v>
+        <v>300</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>30.45</v>
+        <v>15</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6020,16 +6020,16 @@
         <v>18</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>606</v>
+        <v>665</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>33.67</v>
+        <v>36.94</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6040,25 +6040,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>23.53</v>
+        <v>32.35</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6069,25 +6069,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>29.53</v>
+        <v>26.76</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6098,25 +6098,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>16.13</v>
+        <v>10.13</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6127,25 +6127,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>9.47</v>
+        <v>17.8</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6165,16 +6165,16 @@
         <v>14</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6188,22 +6188,22 @@
         <v>22</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>32.57</v>
+        <v>27.77</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6214,25 +6214,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="G186" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F186" s="0" t="n">
-        <v>421</v>
-      </c>
-      <c r="G186" s="0" t="n">
-        <v>151</v>
-      </c>
       <c r="H186" s="0" t="n">
-        <v>32.38</v>
+        <v>45.15</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6243,25 +6243,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>24.77</v>
+        <v>31.23</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6272,25 +6272,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D188" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="D188" s="0" t="n">
-        <v>13</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>517</v>
+        <v>287</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>39.77</v>
+        <v>23.92</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6301,25 +6301,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>361</v>
+        <v>521</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>27.77</v>
+        <v>43.42</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6330,25 +6330,25 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>26.08</v>
+        <v>35.67</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6368,16 +6368,16 @@
         <v>12</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>15.58</v>
+        <v>16.92</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6388,25 +6388,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>22.25</v>
+        <v>33.55</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6426,16 +6426,16 @@
         <v>9</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>12.64</v>
+        <v>14.64</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6455,16 +6455,16 @@
         <v>11</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>25.36</v>
+        <v>29.09</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6484,16 +6484,16 @@
         <v>11</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>14.09</v>
+        <v>16.36</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6504,25 +6504,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>204</v>
+        <v>666</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>20.4</v>
+        <v>66.6</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6542,16 +6542,16 @@
         <v>9</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>17.5</v>
+        <v>20.8</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6562,25 +6562,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>571</v>
+        <v>227</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>57.1</v>
+        <v>22.7</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6591,7 +6591,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>9</v>
@@ -6600,16 +6600,16 @@
         <v>8</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>15.22</v>
+        <v>36</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6620,7 +6620,7 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>9</v>
@@ -6629,16 +6629,16 @@
         <v>8</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>11.56</v>
+        <v>16.33</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6658,16 +6658,16 @@
         <v>9</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>599</v>
+        <v>664</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>19</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>66.56</v>
+        <v>73.78</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6678,25 +6678,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>290</v>
+        <v>128</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>36.25</v>
+        <v>14.22</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6707,25 +6707,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>9.88</v>
+        <v>32.38</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6745,16 +6745,16 @@
         <v>8</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>15</v>
+        <v>16.63</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6765,25 +6765,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>7.75</v>
+        <v>10.63</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6794,25 +6794,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>27.25</v>
+        <v>29.38</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6832,16 +6832,16 @@
         <v>7</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>26.25</v>
+        <v>9.13</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6861,16 +6861,16 @@
         <v>7</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>774</v>
+        <v>844</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>110.57</v>
+        <v>120.57</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6890,16 +6890,16 @@
         <v>6</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>61.83</v>
+        <v>67.33</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>27.33</v>
+        <v>33.17</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6939,7 +6939,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>5</v>
@@ -6948,16 +6948,16 @@
         <v>5</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>38.6</v>
+        <v>19.2</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6977,16 +6977,16 @@
         <v>5</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>28.8</v>
+        <v>44.6</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6997,7 +6997,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>5</v>
@@ -7006,16 +7006,16 @@
         <v>5</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>17.4</v>
+        <v>31.6</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7044,7 +7044,7 @@
         <v>1.67</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7055,7 +7055,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>3</v>
@@ -7064,16 +7064,16 @@
         <v>3</v>
       </c>
       <c r="F215" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="I215" s="0" t="n">
         <v>28</v>
-      </c>
-      <c r="G215" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H215" s="0" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="I215" s="0" t="n">
-        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7093,16 +7093,16 @@
         <v>3</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>31.33</v>
+        <v>34</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7113,7 +7113,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>3</v>
@@ -7122,16 +7122,16 @@
         <v>3</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>17.33</v>
+        <v>10</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7142,7 +7142,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>2</v>
@@ -7151,16 +7151,16 @@
         <v>2</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>1</v>
+        <v>13.5</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7180,16 +7180,16 @@
         <v>2</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7200,7 +7200,7 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>2</v>
@@ -7209,16 +7209,16 @@
         <v>2</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7229,7 +7229,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>1</v>
@@ -7238,16 +7238,16 @@
         <v>1</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7258,7 +7258,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>1</v>
@@ -7267,16 +7267,16 @@
         <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7296,16 +7296,16 @@
         <v>1</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G223" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7325,16 +7325,16 @@
         <v>1</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
